--- a/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_1_Server.xlsx
+++ b/AdditionalMetrics/AdditionalMetricsExperiments_1_2_3_Architecture_1_Server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INVESTIGACION\PAPERS\ACEPTADOS\2024 ECSA\EnergyConsumption_IoTMonitoringEdgeArchitectures\AdditionalMetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1772,9 +1772,6 @@
     <t>T_mem_RAM (bytes)</t>
   </si>
   <si>
-    <t>RSS (Resisden Set Size) (bytes)</t>
-  </si>
-  <si>
     <t>VSZ (Virtual Set Size) (bytes)</t>
   </si>
   <si>
@@ -1791,6 +1788,9 @@
   </si>
   <si>
     <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>RSS (Resident Set Size) (bytes)</t>
   </si>
 </sst>
 </file>
@@ -2304,25 +2304,25 @@
   <dimension ref="A1:H943"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="18.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2339,16 +2339,16 @@
         <v>572</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5239,7 +5239,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B225" s="4"/>
     </row>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="533" spans="1:8">
